--- a/results/IAG.xlsx
+++ b/results/IAG.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P121"/>
+  <dimension ref="A1:P160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6378,6 +6378,1900 @@
       </c>
       <c r="P121" t="n">
         <v>-23.48467356556261</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>36</v>
+      </c>
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" t="n">
+        <v>0.9650484919548036</v>
+      </c>
+      <c r="E122" t="n">
+        <v>18.58877869549219</v>
+      </c>
+      <c r="F122" t="b">
+        <v>1</v>
+      </c>
+      <c r="G122" t="n">
+        <v>22.99919226557292</v>
+      </c>
+      <c r="H122" t="n">
+        <v>46</v>
+      </c>
+      <c r="I122" t="n">
+        <v>-6.086094802878613</v>
+      </c>
+      <c r="J122" t="n">
+        <v>22</v>
+      </c>
+      <c r="K122" t="b">
+        <v>1</v>
+      </c>
+      <c r="L122" t="n">
+        <v>32</v>
+      </c>
+      <c r="M122" t="n">
+        <v>5.828343419394215</v>
+      </c>
+      <c r="N122" t="n">
+        <v>4.410413570080728</v>
+      </c>
+      <c r="O122" t="n">
+        <v>-12.76043527609798</v>
+      </c>
+      <c r="P122" t="n">
+        <v>-17.1708488461787</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>40</v>
+      </c>
+      <c r="C123" t="inlineStr"/>
+      <c r="D123" t="n">
+        <v>0.9816300272941588</v>
+      </c>
+      <c r="E123" t="n">
+        <v>19.37806374502332</v>
+      </c>
+      <c r="F123" t="b">
+        <v>1</v>
+      </c>
+      <c r="G123" t="n">
+        <v>24.61389134995386</v>
+      </c>
+      <c r="H123" t="n">
+        <v>51</v>
+      </c>
+      <c r="I123" t="n">
+        <v>-7.672473269901891</v>
+      </c>
+      <c r="J123" t="n">
+        <v>18</v>
+      </c>
+      <c r="K123" t="b">
+        <v>1</v>
+      </c>
+      <c r="L123" t="n">
+        <v>28</v>
+      </c>
+      <c r="M123" t="n">
+        <v>4.040708192758814</v>
+      </c>
+      <c r="N123" t="n">
+        <v>5.235827604930538</v>
+      </c>
+      <c r="O123" t="n">
+        <v>-15.33735555226451</v>
+      </c>
+      <c r="P123" t="n">
+        <v>-20.57318315719505</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>46</v>
+      </c>
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="n">
+        <v>1.128211617469788</v>
+      </c>
+      <c r="E124" t="n">
+        <v>-4.332096205407262</v>
+      </c>
+      <c r="F124" t="b">
+        <v>0</v>
+      </c>
+      <c r="G124" t="n">
+        <v>8.423575571240107</v>
+      </c>
+      <c r="H124" t="n">
+        <v>45</v>
+      </c>
+      <c r="I124" t="n">
+        <v>-19.66802044874759</v>
+      </c>
+      <c r="J124" t="n">
+        <v>12</v>
+      </c>
+      <c r="K124" t="b">
+        <v>1</v>
+      </c>
+      <c r="L124" t="n">
+        <v>22</v>
+      </c>
+      <c r="M124" t="n">
+        <v>-9.476660547065874</v>
+      </c>
+      <c r="N124" t="n">
+        <v>12.75567177664737</v>
+      </c>
+      <c r="O124" t="n">
+        <v>-5.144564341658612</v>
+      </c>
+      <c r="P124" t="n">
+        <v>-17.90023611830598</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>82</v>
+      </c>
+      <c r="C125" t="inlineStr"/>
+      <c r="D125" t="n">
+        <v>1.176856398582458</v>
+      </c>
+      <c r="E125" t="n">
+        <v>-13.65521135286437</v>
+      </c>
+      <c r="F125" t="b">
+        <v>0</v>
+      </c>
+      <c r="G125" t="n">
+        <v>3.941940337350049</v>
+      </c>
+      <c r="H125" t="n">
+        <v>9</v>
+      </c>
+      <c r="I125" t="n">
+        <v>-31.75502205299456</v>
+      </c>
+      <c r="J125" t="n">
+        <v>37</v>
+      </c>
+      <c r="K125" t="b">
+        <v>1</v>
+      </c>
+      <c r="L125" t="n">
+        <v>22</v>
+      </c>
+      <c r="M125" t="n">
+        <v>-18.18571204131363</v>
+      </c>
+      <c r="N125" t="n">
+        <v>17.59715169021442</v>
+      </c>
+      <c r="O125" t="n">
+        <v>-4.530500688449266</v>
+      </c>
+      <c r="P125" t="n">
+        <v>-22.12765237866368</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>91</v>
+      </c>
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="n">
+        <v>1.17527711391449</v>
+      </c>
+      <c r="E126" t="n">
+        <v>-7.702583411866126</v>
+      </c>
+      <c r="F126" t="b">
+        <v>0</v>
+      </c>
+      <c r="G126" t="n">
+        <v>4.081612854401773</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>-31.66331751279585</v>
+      </c>
+      <c r="J126" t="n">
+        <v>28</v>
+      </c>
+      <c r="K126" t="b">
+        <v>1</v>
+      </c>
+      <c r="L126" t="n">
+        <v>13</v>
+      </c>
+      <c r="M126" t="n">
+        <v>-18.07577367098019</v>
+      </c>
+      <c r="N126" t="n">
+        <v>11.7841962662679</v>
+      </c>
+      <c r="O126" t="n">
+        <v>-10.37319025911406</v>
+      </c>
+      <c r="P126" t="n">
+        <v>-22.15738652538196</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>133</v>
+      </c>
+      <c r="C127" t="inlineStr"/>
+      <c r="D127" t="n">
+        <v>1.068533062934876</v>
+      </c>
+      <c r="E127" t="n">
+        <v>51.943118233325</v>
+      </c>
+      <c r="F127" t="b">
+        <v>1</v>
+      </c>
+      <c r="G127" t="n">
+        <v>59.37145481353117</v>
+      </c>
+      <c r="H127" t="n">
+        <v>52</v>
+      </c>
+      <c r="I127" t="n">
+        <v>-12.74509662269792</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="b">
+        <v>1</v>
+      </c>
+      <c r="L127" t="n">
+        <v>9</v>
+      </c>
+      <c r="M127" t="n">
+        <v>-1.136330040536598</v>
+      </c>
+      <c r="N127" t="n">
+        <v>7.428336580206171</v>
+      </c>
+      <c r="O127" t="n">
+        <v>-53.07944827386159</v>
+      </c>
+      <c r="P127" t="n">
+        <v>-60.50778485406776</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>145</v>
+      </c>
+      <c r="C128" t="inlineStr"/>
+      <c r="D128" t="n">
+        <v>1.155648589134216</v>
+      </c>
+      <c r="E128" t="n">
+        <v>44.54785361640464</v>
+      </c>
+      <c r="F128" t="b">
+        <v>1</v>
+      </c>
+      <c r="G128" t="n">
+        <v>56.30228877603941</v>
+      </c>
+      <c r="H128" t="n">
+        <v>46</v>
+      </c>
+      <c r="I128" t="n">
+        <v>-6.441691407335454</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="b">
+        <v>1</v>
+      </c>
+      <c r="L128" t="n">
+        <v>51</v>
+      </c>
+      <c r="M128" t="n">
+        <v>42.95941226390853</v>
+      </c>
+      <c r="N128" t="n">
+        <v>11.75443515963477</v>
+      </c>
+      <c r="O128" t="n">
+        <v>-1.588441352496105</v>
+      </c>
+      <c r="P128" t="n">
+        <v>-13.34287651213088</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>154</v>
+      </c>
+      <c r="C129" t="inlineStr"/>
+      <c r="D129" t="n">
+        <v>1.300991415977478</v>
+      </c>
+      <c r="E129" t="n">
+        <v>36.58310751988339</v>
+      </c>
+      <c r="F129" t="b">
+        <v>1</v>
+      </c>
+      <c r="G129" t="n">
+        <v>47.30659112336964</v>
+      </c>
+      <c r="H129" t="n">
+        <v>48</v>
+      </c>
+      <c r="I129" t="n">
+        <v>-2.724800909685131</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="b">
+        <v>1</v>
+      </c>
+      <c r="L129" t="n">
+        <v>42</v>
+      </c>
+      <c r="M129" t="n">
+        <v>26.98841902973993</v>
+      </c>
+      <c r="N129" t="n">
+        <v>10.72348360348625</v>
+      </c>
+      <c r="O129" t="n">
+        <v>-9.594688490143458</v>
+      </c>
+      <c r="P129" t="n">
+        <v>-20.31817209362971</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>188</v>
+      </c>
+      <c r="C130" t="inlineStr"/>
+      <c r="D130" t="n">
+        <v>1.677808165550232</v>
+      </c>
+      <c r="E130" t="n">
+        <v>44.05227903705111</v>
+      </c>
+      <c r="F130" t="b">
+        <v>1</v>
+      </c>
+      <c r="G130" t="n">
+        <v>56.64647972104115</v>
+      </c>
+      <c r="H130" t="n">
+        <v>47</v>
+      </c>
+      <c r="I130" t="n">
+        <v>-6.126925841227925</v>
+      </c>
+      <c r="J130" t="n">
+        <v>8</v>
+      </c>
+      <c r="K130" t="b">
+        <v>1</v>
+      </c>
+      <c r="L130" t="n">
+        <v>8</v>
+      </c>
+      <c r="M130" t="n">
+        <v>-1.531744523330355</v>
+      </c>
+      <c r="N130" t="n">
+        <v>12.59420068399004</v>
+      </c>
+      <c r="O130" t="n">
+        <v>-45.58402356038147</v>
+      </c>
+      <c r="P130" t="n">
+        <v>-58.17822424437151</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>212</v>
+      </c>
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="n">
+        <v>1.920117735862732</v>
+      </c>
+      <c r="E131" t="n">
+        <v>9.46401015948542</v>
+      </c>
+      <c r="F131" t="b">
+        <v>1</v>
+      </c>
+      <c r="G131" t="n">
+        <v>36.87845170732317</v>
+      </c>
+      <c r="H131" t="n">
+        <v>23</v>
+      </c>
+      <c r="I131" t="n">
+        <v>-3.250472890138489</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="b">
+        <v>1</v>
+      </c>
+      <c r="L131" t="n">
+        <v>21</v>
+      </c>
+      <c r="M131" t="n">
+        <v>27.84484372278959</v>
+      </c>
+      <c r="N131" t="n">
+        <v>27.41444154783775</v>
+      </c>
+      <c r="O131" t="n">
+        <v>18.38083356330417</v>
+      </c>
+      <c r="P131" t="n">
+        <v>-9.033607984533585</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>219</v>
+      </c>
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="n">
+        <v>1.998507738113404</v>
+      </c>
+      <c r="E132" t="n">
+        <v>1.121511404500088</v>
+      </c>
+      <c r="F132" t="b">
+        <v>1</v>
+      </c>
+      <c r="G132" t="n">
+        <v>31.50949469365928</v>
+      </c>
+      <c r="H132" t="n">
+        <v>16</v>
+      </c>
+      <c r="I132" t="n">
+        <v>-3.20750659855539</v>
+      </c>
+      <c r="J132" t="n">
+        <v>1</v>
+      </c>
+      <c r="K132" t="b">
+        <v>1</v>
+      </c>
+      <c r="L132" t="n">
+        <v>14</v>
+      </c>
+      <c r="M132" t="n">
+        <v>22.83022336578922</v>
+      </c>
+      <c r="N132" t="n">
+        <v>30.3879832891592</v>
+      </c>
+      <c r="O132" t="n">
+        <v>21.70871196128913</v>
+      </c>
+      <c r="P132" t="n">
+        <v>-8.679271327870065</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>296</v>
+      </c>
+      <c r="C133" t="inlineStr"/>
+      <c r="D133" t="n">
+        <v>2.252516269683838</v>
+      </c>
+      <c r="E133" t="n">
+        <v>17.3669824459569</v>
+      </c>
+      <c r="F133" t="b">
+        <v>1</v>
+      </c>
+      <c r="G133" t="n">
+        <v>25.63526413041992</v>
+      </c>
+      <c r="H133" t="n">
+        <v>40</v>
+      </c>
+      <c r="I133" t="n">
+        <v>-6.547071049217468</v>
+      </c>
+      <c r="J133" t="n">
+        <v>14</v>
+      </c>
+      <c r="K133" t="b">
+        <v>0</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
+        <v>8.268281684463012</v>
+      </c>
+      <c r="O133" t="inlineStr"/>
+      <c r="P133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>304</v>
+      </c>
+      <c r="C134" t="inlineStr"/>
+      <c r="D134" t="n">
+        <v>2.299799919128418</v>
+      </c>
+      <c r="E134" t="n">
+        <v>13.43387870280716</v>
+      </c>
+      <c r="F134" t="b">
+        <v>1</v>
+      </c>
+      <c r="G134" t="n">
+        <v>23.05221604105772</v>
+      </c>
+      <c r="H134" t="n">
+        <v>32</v>
+      </c>
+      <c r="I134" t="n">
+        <v>-8.468453642253079</v>
+      </c>
+      <c r="J134" t="n">
+        <v>6</v>
+      </c>
+      <c r="K134" t="b">
+        <v>0</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
+        <v>9.618337338250559</v>
+      </c>
+      <c r="O134" t="inlineStr"/>
+      <c r="P134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>322</v>
+      </c>
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="n">
+        <v>2.46287202835083</v>
+      </c>
+      <c r="E135" t="n">
+        <v>-7.492066337826188</v>
+      </c>
+      <c r="F135" t="b">
+        <v>0</v>
+      </c>
+      <c r="G135" t="n">
+        <v>14.90466140430953</v>
+      </c>
+      <c r="H135" t="n">
+        <v>14</v>
+      </c>
+      <c r="I135" t="n">
+        <v>-14.08671490843446</v>
+      </c>
+      <c r="J135" t="n">
+        <v>48</v>
+      </c>
+      <c r="K135" t="b">
+        <v>1</v>
+      </c>
+      <c r="L135" t="n">
+        <v>35</v>
+      </c>
+      <c r="M135" t="n">
+        <v>3.971506773356216</v>
+      </c>
+      <c r="N135" t="n">
+        <v>22.39672774213572</v>
+      </c>
+      <c r="O135" t="n">
+        <v>11.4635731111824</v>
+      </c>
+      <c r="P135" t="n">
+        <v>-10.93315463095331</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>469</v>
+      </c>
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="n">
+        <v>1.854935169219971</v>
+      </c>
+      <c r="E136" t="n">
+        <v>-4.877308467355821</v>
+      </c>
+      <c r="F136" t="b">
+        <v>0</v>
+      </c>
+      <c r="G136" t="n">
+        <v>12.04113288136112</v>
+      </c>
+      <c r="H136" t="n">
+        <v>15</v>
+      </c>
+      <c r="I136" t="n">
+        <v>-12.48710201087165</v>
+      </c>
+      <c r="J136" t="n">
+        <v>43</v>
+      </c>
+      <c r="K136" t="b">
+        <v>1</v>
+      </c>
+      <c r="L136" t="n">
+        <v>18</v>
+      </c>
+      <c r="M136" t="n">
+        <v>2.460450052325376</v>
+      </c>
+      <c r="N136" t="n">
+        <v>16.91844134871695</v>
+      </c>
+      <c r="O136" t="n">
+        <v>7.337758519681197</v>
+      </c>
+      <c r="P136" t="n">
+        <v>-9.580682829035748</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>478</v>
+      </c>
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="n">
+        <v>1.915383696556092</v>
+      </c>
+      <c r="E137" t="n">
+        <v>-0.5432365143265645</v>
+      </c>
+      <c r="F137" t="b">
+        <v>0</v>
+      </c>
+      <c r="G137" t="n">
+        <v>8.505172177546827</v>
+      </c>
+      <c r="H137" t="n">
+        <v>6</v>
+      </c>
+      <c r="I137" t="n">
+        <v>-15.24896419852135</v>
+      </c>
+      <c r="J137" t="n">
+        <v>34</v>
+      </c>
+      <c r="K137" t="b">
+        <v>1</v>
+      </c>
+      <c r="L137" t="n">
+        <v>9</v>
+      </c>
+      <c r="M137" t="n">
+        <v>-0.773149213970694</v>
+      </c>
+      <c r="N137" t="n">
+        <v>9.048408691873391</v>
+      </c>
+      <c r="O137" t="n">
+        <v>-0.2299126996441295</v>
+      </c>
+      <c r="P137" t="n">
+        <v>-9.278321391517521</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>500</v>
+      </c>
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="n">
+        <v>1.996365904808044</v>
+      </c>
+      <c r="E138" t="n">
+        <v>-9.016010348527125</v>
+      </c>
+      <c r="F138" t="b">
+        <v>0</v>
+      </c>
+      <c r="G138" t="n">
+        <v>3.097037186953241</v>
+      </c>
+      <c r="H138" t="n">
+        <v>41</v>
+      </c>
+      <c r="I138" t="n">
+        <v>-18.68687405979199</v>
+      </c>
+      <c r="J138" t="n">
+        <v>12</v>
+      </c>
+      <c r="K138" t="b">
+        <v>0</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
+        <v>12.11304753548037</v>
+      </c>
+      <c r="O138" t="inlineStr"/>
+      <c r="P138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>532</v>
+      </c>
+      <c r="C139" t="inlineStr"/>
+      <c r="D139" t="n">
+        <v>1.925406813621521</v>
+      </c>
+      <c r="E139" t="n">
+        <v>-14.29206841254144</v>
+      </c>
+      <c r="F139" t="b">
+        <v>0</v>
+      </c>
+      <c r="G139" t="n">
+        <v>6.896583345746185</v>
+      </c>
+      <c r="H139" t="n">
+        <v>9</v>
+      </c>
+      <c r="I139" t="n">
+        <v>-25.50897861428835</v>
+      </c>
+      <c r="J139" t="n">
+        <v>42</v>
+      </c>
+      <c r="K139" t="b">
+        <v>1</v>
+      </c>
+      <c r="L139" t="n">
+        <v>31</v>
+      </c>
+      <c r="M139" t="n">
+        <v>-5.119139833784923</v>
+      </c>
+      <c r="N139" t="n">
+        <v>21.18865175828762</v>
+      </c>
+      <c r="O139" t="n">
+        <v>9.172928578756514</v>
+      </c>
+      <c r="P139" t="n">
+        <v>-12.01572317953111</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>541</v>
+      </c>
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" t="n">
+        <v>2.012229442596436</v>
+      </c>
+      <c r="E140" t="n">
+        <v>-17.45761384433137</v>
+      </c>
+      <c r="F140" t="b">
+        <v>0</v>
+      </c>
+      <c r="G140" t="n">
+        <v>2.284265188559218</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>-28.7230784454631</v>
+      </c>
+      <c r="J140" t="n">
+        <v>33</v>
+      </c>
+      <c r="K140" t="b">
+        <v>1</v>
+      </c>
+      <c r="L140" t="n">
+        <v>22</v>
+      </c>
+      <c r="M140" t="n">
+        <v>-9.213009819308327</v>
+      </c>
+      <c r="N140" t="n">
+        <v>19.74187903289059</v>
+      </c>
+      <c r="O140" t="n">
+        <v>8.244604025023042</v>
+      </c>
+      <c r="P140" t="n">
+        <v>-11.49727500786754</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>565</v>
+      </c>
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="n">
+        <v>1.863483548164368</v>
+      </c>
+      <c r="E141" t="n">
+        <v>-3.663323893955455</v>
+      </c>
+      <c r="F141" t="b">
+        <v>0</v>
+      </c>
+      <c r="G141" t="n">
+        <v>4.802587975733053</v>
+      </c>
+      <c r="H141" t="n">
+        <v>47</v>
+      </c>
+      <c r="I141" t="n">
+        <v>-23.03365367998148</v>
+      </c>
+      <c r="J141" t="n">
+        <v>9</v>
+      </c>
+      <c r="K141" t="b">
+        <v>1</v>
+      </c>
+      <c r="L141" t="n">
+        <v>5</v>
+      </c>
+      <c r="M141" t="n">
+        <v>-7.865144604032001</v>
+      </c>
+      <c r="N141" t="n">
+        <v>8.465911869688508</v>
+      </c>
+      <c r="O141" t="n">
+        <v>-4.201820710076547</v>
+      </c>
+      <c r="P141" t="n">
+        <v>-12.66773257976505</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>586</v>
+      </c>
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" t="n">
+        <v>1.677016019821167</v>
+      </c>
+      <c r="E142" t="n">
+        <v>50.97897827881059</v>
+      </c>
+      <c r="F142" t="b">
+        <v>1</v>
+      </c>
+      <c r="G142" t="n">
+        <v>54.98725895166384</v>
+      </c>
+      <c r="H142" t="n">
+        <v>51</v>
+      </c>
+      <c r="I142" t="n">
+        <v>-11.34186401805711</v>
+      </c>
+      <c r="J142" t="n">
+        <v>3</v>
+      </c>
+      <c r="K142" t="b">
+        <v>0</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
+        <v>4.008280672853246</v>
+      </c>
+      <c r="O142" t="inlineStr"/>
+      <c r="P142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>602</v>
+      </c>
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="n">
+        <v>1.741310238838196</v>
+      </c>
+      <c r="E143" t="n">
+        <v>81.7555612589955</v>
+      </c>
+      <c r="F143" t="b">
+        <v>1</v>
+      </c>
+      <c r="G143" t="n">
+        <v>83.68568973373206</v>
+      </c>
+      <c r="H143" t="n">
+        <v>52</v>
+      </c>
+      <c r="I143" t="n">
+        <v>-13.23077454010573</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="b">
+        <v>0</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
+        <v>1.930128474736563</v>
+      </c>
+      <c r="O143" t="inlineStr"/>
+      <c r="P143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>629</v>
+      </c>
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="n">
+        <v>2.257622718811035</v>
+      </c>
+      <c r="E144" t="n">
+        <v>47.22302600147257</v>
+      </c>
+      <c r="F144" t="b">
+        <v>1</v>
+      </c>
+      <c r="G144" t="n">
+        <v>53.79999323654187</v>
+      </c>
+      <c r="H144" t="n">
+        <v>36</v>
+      </c>
+      <c r="I144" t="n">
+        <v>-2.168675725645938</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="b">
+        <v>0</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
+        <v>6.576967235069297</v>
+      </c>
+      <c r="O144" t="inlineStr"/>
+      <c r="P144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>684</v>
+      </c>
+      <c r="C145" t="inlineStr"/>
+      <c r="D145" t="n">
+        <v>3.495984792709351</v>
+      </c>
+      <c r="E145" t="n">
+        <v>11.3881852577704</v>
+      </c>
+      <c r="F145" t="b">
+        <v>1</v>
+      </c>
+      <c r="G145" t="n">
+        <v>15.479422510755</v>
+      </c>
+      <c r="H145" t="n">
+        <v>50</v>
+      </c>
+      <c r="I145" t="n">
+        <v>-9.215036589391415</v>
+      </c>
+      <c r="J145" t="n">
+        <v>20</v>
+      </c>
+      <c r="K145" t="b">
+        <v>1</v>
+      </c>
+      <c r="L145" t="n">
+        <v>20</v>
+      </c>
+      <c r="M145" t="n">
+        <v>-8.02050135908047</v>
+      </c>
+      <c r="N145" t="n">
+        <v>4.0912372529846</v>
+      </c>
+      <c r="O145" t="n">
+        <v>-19.40868661685086</v>
+      </c>
+      <c r="P145" t="n">
+        <v>-23.49992386983547</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>716</v>
+      </c>
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" t="n">
+        <v>3.487456321716309</v>
+      </c>
+      <c r="E146" t="n">
+        <v>7.194342528008296</v>
+      </c>
+      <c r="F146" t="b">
+        <v>1</v>
+      </c>
+      <c r="G146" t="n">
+        <v>20.60073597496211</v>
+      </c>
+      <c r="H146" t="n">
+        <v>27</v>
+      </c>
+      <c r="I146" t="n">
+        <v>-1.225915599855479</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="b">
+        <v>1</v>
+      </c>
+      <c r="L146" t="n">
+        <v>52</v>
+      </c>
+      <c r="M146" t="n">
+        <v>7.194342528008296</v>
+      </c>
+      <c r="N146" t="n">
+        <v>13.40639344695382</v>
+      </c>
+      <c r="O146" t="n">
+        <v>0</v>
+      </c>
+      <c r="P146" t="n">
+        <v>-13.40639344695382</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>728</v>
+      </c>
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="n">
+        <v>3.841699361801148</v>
+      </c>
+      <c r="E147" t="n">
+        <v>-1.843885670524073</v>
+      </c>
+      <c r="F147" t="b">
+        <v>0</v>
+      </c>
+      <c r="G147" t="n">
+        <v>9.480143933577125</v>
+      </c>
+      <c r="H147" t="n">
+        <v>15</v>
+      </c>
+      <c r="I147" t="n">
+        <v>-10.13638815054137</v>
+      </c>
+      <c r="J147" t="n">
+        <v>46</v>
+      </c>
+      <c r="K147" t="b">
+        <v>1</v>
+      </c>
+      <c r="L147" t="n">
+        <v>40</v>
+      </c>
+      <c r="M147" t="n">
+        <v>-2.690046176269176</v>
+      </c>
+      <c r="N147" t="n">
+        <v>11.3240296041012</v>
+      </c>
+      <c r="O147" t="n">
+        <v>-0.8461605057451036</v>
+      </c>
+      <c r="P147" t="n">
+        <v>-12.1701901098463</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>799</v>
+      </c>
+      <c r="C148" t="inlineStr"/>
+      <c r="D148" t="n">
+        <v>3.79477334022522</v>
+      </c>
+      <c r="E148" t="n">
+        <v>6.508738484307369</v>
+      </c>
+      <c r="F148" t="b">
+        <v>1</v>
+      </c>
+      <c r="G148" t="n">
+        <v>14.02443386953375</v>
+      </c>
+      <c r="H148" t="n">
+        <v>37</v>
+      </c>
+      <c r="I148" t="n">
+        <v>-12.74336991609119</v>
+      </c>
+      <c r="J148" t="n">
+        <v>7</v>
+      </c>
+      <c r="K148" t="b">
+        <v>1</v>
+      </c>
+      <c r="L148" t="n">
+        <v>6</v>
+      </c>
+      <c r="M148" t="n">
+        <v>-10.08850412652131</v>
+      </c>
+      <c r="N148" t="n">
+        <v>7.515695385226384</v>
+      </c>
+      <c r="O148" t="n">
+        <v>-16.59724261082868</v>
+      </c>
+      <c r="P148" t="n">
+        <v>-24.11293799605507</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>819</v>
+      </c>
+      <c r="C149" t="inlineStr"/>
+      <c r="D149" t="n">
+        <v>4.060477733612061</v>
+      </c>
+      <c r="E149" t="n">
+        <v>9.498335904936903</v>
+      </c>
+      <c r="F149" t="b">
+        <v>1</v>
+      </c>
+      <c r="G149" t="n">
+        <v>12.93144274979765</v>
+      </c>
+      <c r="H149" t="n">
+        <v>46</v>
+      </c>
+      <c r="I149" t="n">
+        <v>-9.654527979090977</v>
+      </c>
+      <c r="J149" t="n">
+        <v>29</v>
+      </c>
+      <c r="K149" t="b">
+        <v>1</v>
+      </c>
+      <c r="L149" t="n">
+        <v>6</v>
+      </c>
+      <c r="M149" t="n">
+        <v>1.036305937955753</v>
+      </c>
+      <c r="N149" t="n">
+        <v>3.433106844860747</v>
+      </c>
+      <c r="O149" t="n">
+        <v>-8.462029966981151</v>
+      </c>
+      <c r="P149" t="n">
+        <v>-11.8951368118419</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>836</v>
+      </c>
+      <c r="C150" t="inlineStr"/>
+      <c r="D150" t="n">
+        <v>4.081516265869141</v>
+      </c>
+      <c r="E150" t="n">
+        <v>20.79801999168182</v>
+      </c>
+      <c r="F150" t="b">
+        <v>1</v>
+      </c>
+      <c r="G150" t="n">
+        <v>25.92116536701379</v>
+      </c>
+      <c r="H150" t="n">
+        <v>47</v>
+      </c>
+      <c r="I150" t="n">
+        <v>-10.1202216094919</v>
+      </c>
+      <c r="J150" t="n">
+        <v>12</v>
+      </c>
+      <c r="K150" t="b">
+        <v>1</v>
+      </c>
+      <c r="L150" t="n">
+        <v>12</v>
+      </c>
+      <c r="M150" t="n">
+        <v>-3.436385748800161</v>
+      </c>
+      <c r="N150" t="n">
+        <v>5.123145375331973</v>
+      </c>
+      <c r="O150" t="n">
+        <v>-24.23440574048198</v>
+      </c>
+      <c r="P150" t="n">
+        <v>-29.35755111581395</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>865</v>
+      </c>
+      <c r="C151" t="inlineStr"/>
+      <c r="D151" t="n">
+        <v>4.55620813369751</v>
+      </c>
+      <c r="E151" t="n">
+        <v>36.89653054020273</v>
+      </c>
+      <c r="F151" t="b">
+        <v>1</v>
+      </c>
+      <c r="G151" t="n">
+        <v>39.6039976351727</v>
+      </c>
+      <c r="H151" t="n">
+        <v>51</v>
+      </c>
+      <c r="I151" t="n">
+        <v>-6.280173272701601</v>
+      </c>
+      <c r="J151" t="n">
+        <v>2</v>
+      </c>
+      <c r="K151" t="b">
+        <v>0</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
+        <v>2.707467094969971</v>
+      </c>
+      <c r="O151" t="inlineStr"/>
+      <c r="P151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>905</v>
+      </c>
+      <c r="C152" t="inlineStr"/>
+      <c r="D152" t="n">
+        <v>5.527320384979248</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0.8238098676536546</v>
+      </c>
+      <c r="F152" t="b">
+        <v>1</v>
+      </c>
+      <c r="G152" t="n">
+        <v>21.14419702563345</v>
+      </c>
+      <c r="H152" t="n">
+        <v>28</v>
+      </c>
+      <c r="I152" t="n">
+        <v>-3.97261908998971</v>
+      </c>
+      <c r="J152" t="n">
+        <v>5</v>
+      </c>
+      <c r="K152" t="b">
+        <v>1</v>
+      </c>
+      <c r="L152" t="n">
+        <v>26</v>
+      </c>
+      <c r="M152" t="n">
+        <v>12.5657899220567</v>
+      </c>
+      <c r="N152" t="n">
+        <v>20.32038715797979</v>
+      </c>
+      <c r="O152" t="n">
+        <v>11.74198005440304</v>
+      </c>
+      <c r="P152" t="n">
+        <v>-8.578407103576749</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>977</v>
+      </c>
+      <c r="C153" t="inlineStr"/>
+      <c r="D153" t="n">
+        <v>6.581562042236328</v>
+      </c>
+      <c r="E153" t="n">
+        <v>-27.90328530930838</v>
+      </c>
+      <c r="F153" t="b">
+        <v>0</v>
+      </c>
+      <c r="G153" t="n">
+        <v>8.034592844049664</v>
+      </c>
+      <c r="H153" t="n">
+        <v>13</v>
+      </c>
+      <c r="I153" t="n">
+        <v>-35.6279408907897</v>
+      </c>
+      <c r="J153" t="n">
+        <v>47</v>
+      </c>
+      <c r="K153" t="b">
+        <v>1</v>
+      </c>
+      <c r="L153" t="n">
+        <v>38</v>
+      </c>
+      <c r="M153" t="n">
+        <v>-7.402965657905185</v>
+      </c>
+      <c r="N153" t="n">
+        <v>35.93787815335804</v>
+      </c>
+      <c r="O153" t="n">
+        <v>20.5003196514032</v>
+      </c>
+      <c r="P153" t="n">
+        <v>-15.43755850195485</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>1096</v>
+      </c>
+      <c r="C154" t="inlineStr"/>
+      <c r="D154" t="n">
+        <v>4.662506103515625</v>
+      </c>
+      <c r="E154" t="n">
+        <v>-10.94418849529719</v>
+      </c>
+      <c r="F154" t="b">
+        <v>0</v>
+      </c>
+      <c r="G154" t="n">
+        <v>3.589610714765264</v>
+      </c>
+      <c r="H154" t="n">
+        <v>4</v>
+      </c>
+      <c r="I154" t="n">
+        <v>-23.17502876847532</v>
+      </c>
+      <c r="J154" t="n">
+        <v>44</v>
+      </c>
+      <c r="K154" t="b">
+        <v>1</v>
+      </c>
+      <c r="L154" t="n">
+        <v>12</v>
+      </c>
+      <c r="M154" t="n">
+        <v>-12.6375334629306</v>
+      </c>
+      <c r="N154" t="n">
+        <v>14.53379921006245</v>
+      </c>
+      <c r="O154" t="n">
+        <v>-1.69334496763341</v>
+      </c>
+      <c r="P154" t="n">
+        <v>-16.22714417769586</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>1156</v>
+      </c>
+      <c r="C155" t="inlineStr"/>
+      <c r="D155" t="n">
+        <v>4.287437915802002</v>
+      </c>
+      <c r="E155" t="n">
+        <v>21.45335619812201</v>
+      </c>
+      <c r="F155" t="b">
+        <v>1</v>
+      </c>
+      <c r="G155" t="n">
+        <v>29.76323288152057</v>
+      </c>
+      <c r="H155" t="n">
+        <v>43</v>
+      </c>
+      <c r="I155" t="n">
+        <v>-6.302525365606609</v>
+      </c>
+      <c r="J155" t="n">
+        <v>17</v>
+      </c>
+      <c r="K155" t="b">
+        <v>1</v>
+      </c>
+      <c r="L155" t="n">
+        <v>8</v>
+      </c>
+      <c r="M155" t="n">
+        <v>-1.050424911156861</v>
+      </c>
+      <c r="N155" t="n">
+        <v>8.309876683398567</v>
+      </c>
+      <c r="O155" t="n">
+        <v>-22.50378110927887</v>
+      </c>
+      <c r="P155" t="n">
+        <v>-30.81365779267743</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>1172</v>
+      </c>
+      <c r="C156" t="inlineStr"/>
+      <c r="D156" t="n">
+        <v>4.575669288635254</v>
+      </c>
+      <c r="E156" t="n">
+        <v>21.29510037334796</v>
+      </c>
+      <c r="F156" t="b">
+        <v>1</v>
+      </c>
+      <c r="G156" t="n">
+        <v>23.52254571762553</v>
+      </c>
+      <c r="H156" t="n">
+        <v>45</v>
+      </c>
+      <c r="I156" t="n">
+        <v>-12.20473333591537</v>
+      </c>
+      <c r="J156" t="n">
+        <v>1</v>
+      </c>
+      <c r="K156" t="b">
+        <v>1</v>
+      </c>
+      <c r="L156" t="n">
+        <v>7</v>
+      </c>
+      <c r="M156" t="n">
+        <v>-6.515873384748487</v>
+      </c>
+      <c r="N156" t="n">
+        <v>2.227445344277573</v>
+      </c>
+      <c r="O156" t="n">
+        <v>-27.81097375809645</v>
+      </c>
+      <c r="P156" t="n">
+        <v>-30.03841910237402</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>1192</v>
+      </c>
+      <c r="C157" t="inlineStr"/>
+      <c r="D157" t="n">
+        <v>5.025407314300537</v>
+      </c>
+      <c r="E157" t="n">
+        <v>23.49760789475857</v>
+      </c>
+      <c r="F157" t="b">
+        <v>1</v>
+      </c>
+      <c r="G157" t="n">
+        <v>24.43461015861497</v>
+      </c>
+      <c r="H157" t="n">
+        <v>52</v>
+      </c>
+      <c r="I157" t="n">
+        <v>-8.348457695805255</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="b">
+        <v>1</v>
+      </c>
+      <c r="L157" t="n">
+        <v>16</v>
+      </c>
+      <c r="M157" t="n">
+        <v>3.618212773209104</v>
+      </c>
+      <c r="N157" t="n">
+        <v>0.9370022638564066</v>
+      </c>
+      <c r="O157" t="n">
+        <v>-19.87939512154946</v>
+      </c>
+      <c r="P157" t="n">
+        <v>-20.81639738540587</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>1199</v>
+      </c>
+      <c r="C158" t="inlineStr"/>
+      <c r="D158" t="n">
+        <v>5.563518047332764</v>
+      </c>
+      <c r="E158" t="n">
+        <v>22.55568288884815</v>
+      </c>
+      <c r="F158" t="b">
+        <v>1</v>
+      </c>
+      <c r="G158" t="n">
+        <v>26.11047555396056</v>
+      </c>
+      <c r="H158" t="n">
+        <v>52</v>
+      </c>
+      <c r="I158" t="n">
+        <v>-10.06777125632164</v>
+      </c>
+      <c r="J158" t="n">
+        <v>10</v>
+      </c>
+      <c r="K158" t="b">
+        <v>1</v>
+      </c>
+      <c r="L158" t="n">
+        <v>9</v>
+      </c>
+      <c r="M158" t="n">
+        <v>-6.403876120276565</v>
+      </c>
+      <c r="N158" t="n">
+        <v>3.554792665112412</v>
+      </c>
+      <c r="O158" t="n">
+        <v>-28.95955900912471</v>
+      </c>
+      <c r="P158" t="n">
+        <v>-32.51435167423713</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>1225</v>
+      </c>
+      <c r="C159" t="inlineStr"/>
+      <c r="D159" t="n">
+        <v>5.651983737945557</v>
+      </c>
+      <c r="E159" t="n">
+        <v>56.85632134597377</v>
+      </c>
+      <c r="F159" t="b">
+        <v>1</v>
+      </c>
+      <c r="G159" t="n">
+        <v>57.02682125331538</v>
+      </c>
+      <c r="H159" t="n">
+        <v>52</v>
+      </c>
+      <c r="I159" t="n">
+        <v>-3.44263359160179</v>
+      </c>
+      <c r="J159" t="n">
+        <v>3</v>
+      </c>
+      <c r="K159" t="b">
+        <v>1</v>
+      </c>
+      <c r="L159" t="n">
+        <v>14</v>
+      </c>
+      <c r="M159" t="n">
+        <v>4.30805726348172</v>
+      </c>
+      <c r="N159" t="n">
+        <v>0.1704999073416147</v>
+      </c>
+      <c r="O159" t="n">
+        <v>-52.54826408249205</v>
+      </c>
+      <c r="P159" t="n">
+        <v>-52.71876398983366</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>1253</v>
+      </c>
+      <c r="C160" t="inlineStr"/>
+      <c r="D160" t="n">
+        <v>6.978508472442627</v>
+      </c>
+      <c r="E160" t="n">
+        <v>24.02978259026157</v>
+      </c>
+      <c r="F160" t="b">
+        <v>1</v>
+      </c>
+      <c r="G160" t="n">
+        <v>28.73000292429832</v>
+      </c>
+      <c r="H160" t="n">
+        <v>45</v>
+      </c>
+      <c r="I160" t="n">
+        <v>-3.643724513986454</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="b">
+        <v>1</v>
+      </c>
+      <c r="L160" t="n">
+        <v>34</v>
+      </c>
+      <c r="M160" t="n">
+        <v>7.052849290737617</v>
+      </c>
+      <c r="N160" t="n">
+        <v>4.700220334036747</v>
+      </c>
+      <c r="O160" t="n">
+        <v>-16.97693329952396</v>
+      </c>
+      <c r="P160" t="n">
+        <v>-21.6771536335607</v>
       </c>
     </row>
   </sheetData>
@@ -6391,7 +8285,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6604,40 +8498,90 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>39</v>
+      </c>
+      <c r="C4" t="n">
+        <v>66.66666666666666</v>
+      </c>
+      <c r="D4" t="n">
+        <v>14.75666883848589</v>
+      </c>
+      <c r="E4" t="n">
+        <v>11.3881852577704</v>
+      </c>
+      <c r="F4" t="n">
+        <v>24.07188616489288</v>
+      </c>
+      <c r="G4" t="n">
+        <v>25.79908375850521</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-12.23165884295503</v>
+      </c>
+      <c r="I4" t="n">
+        <v>11.04241492001931</v>
+      </c>
+      <c r="J4" t="n">
+        <v>82.05128205128204</v>
+      </c>
+      <c r="K4" t="n">
+        <v>21.3125</v>
+      </c>
+      <c r="L4" t="n">
+        <v>25</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-9.181076516491617</v>
+      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>random_baseline</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>500</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O5" t="n">
         <v>64.60000000000001</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P5" t="n">
         <v>10.68750396537441</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q5" t="n">
         <v>9.160703512195823</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R5" t="n">
         <v>24.377612440777</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S5" t="n">
         <v>24.05810809030187</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T5" t="n">
         <v>-13.51802409385949</v>
       </c>
     </row>
